--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Mixed Connective Tissue Disease_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Mixed Connective Tissue Disease_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of Raynaud's phenomenon</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with Mixed Connective Tissue Disease and indicates vascular involvement, which is a hallmark of the condition.</t>
+          <t>Raynaud's phenomenon is a common early symptom in Mixed Connective Tissue Disease, often preceding other symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of significant fatigue</t>
+          <t>Absence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fatigue is a common symptom in Mixed Connective Tissue Disease; its absence may suggest that the condition is not present.</t>
+          <t>The absence of Raynaud's phenomenon, a common early symptom, makes Mixed Connective Tissue Disease less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms of myositis (muscle weakness or pain)</t>
+          <t>Swollen hands</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myositis is frequently observed in patients with Mixed Connective Tissue Disease, indicating muscle involvement that supports the diagnosis.</t>
+          <t>Swollen hands are frequently observed in patients with Mixed Connective Tissue Disease and are indicative of underlying inflammation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of pulmonary involvement</t>
+          <t>Lack of swollen hands</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pulmonary complications are often seen in Mixed Connective Tissue Disease; their absence may indicate a lower likelihood of the diagnosis.</t>
+          <t>Swollen hands are a typical feature of Mixed Connective Tissue Disease, so their absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joint pain and swelling</t>
+          <t>Myositis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthralgia and arthritis are prevalent in Mixed Connective Tissue Disease, suggesting inflammatory processes that are characteristic of the condition.</t>
+          <t>Muscle inflammation or myositis is a characteristic feature of Mixed Connective Tissue Disease, distinguishing it from other conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lack of serological markers (e.g., anti-U1 RNP antibodies)</t>
+          <t>No myositis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of specific autoantibodies associated with Mixed Connective Tissue Disease reduces the likelihood of the diagnosis.</t>
+          <t>The absence of muscle inflammation or myositis reduces the likelihood of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Skin manifestations such as rash or sclerodactyly</t>
+          <t>Arthralgia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Skin changes, including rashes or sclerodactyly, are specific features of Mixed Connective Tissue Disease, supporting the diagnosis.</t>
+          <t>Joint pain or arthralgia is a common symptom in Mixed Connective Tissue Disease, often occurring alongside other systemic symptoms.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No significant weight loss</t>
+          <t>No arthralgia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weight loss can be a symptom of systemic disease; its absence may suggest that Mixed Connective Tissue Disease is less likely.</t>
+          <t>Without joint pain, which is common in Mixed Connective Tissue Disease, the diagnosis is less probable.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of esophageal dysmotility</t>
+          <t>Esophageal dysmotility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal involvement is common in Mixed Connective Tissue Disease, indicating systemic effects that align with the diagnosis.</t>
+          <t>Esophageal dysmotility is a specific symptom that can occur in Mixed Connective Tissue Disease due to involvement of smooth muscle.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of dry eyes or mouth (sicca symptoms)</t>
+          <t>Normal esophageal function</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sicca symptoms are often present in connective tissue diseases; their absence may indicate that Mixed Connective Tissue Disease is not present.</t>
+          <t>Normal esophageal function suggests the absence of esophageal dysmotility, which is often seen in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
@@ -618,17 +618,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with Mixed Connective Tissue Disease and indicates vascular involvement.</t>
+          <t>Raynaud's phenomenon is a common feature in Mixed Connective Tissue Disease and is often one of the earliest symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of autoimmune diseases</t>
+          <t>History of osteoarthritis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of autoimmune diseases in the past medical history suggests a lower likelihood of Mixed Connective Tissue Disease.</t>
+          <t>Osteoarthritis is a degenerative joint disease and not typically associated with autoimmune conditions like Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SLE is one of the conditions that can overlap with Mixed Connective Tissue Disease, suggesting a higher likelihood of the diagnosis.</t>
+          <t>SLE is one of the overlapping conditions seen in Mixed Connective Tissue Disease, which often presents with features of multiple connective tissue diseases.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No use of corticosteroids or other immunosuppressants</t>
+          <t>No history of autoimmune disease</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of these medications may indicate that the patient does not have a significant autoimmune condition like Mixed Connective Tissue Disease.</t>
+          <t>The absence of any prior autoimmune disease history makes the presence of Mixed Connective Tissue Disease less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of myositis or muscle weakness</t>
+          <t>History of sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myositis is a common feature in Mixed Connective Tissue Disease, indicating muscle involvement.</t>
+          <t>Sclerodactyly is a specific skin change associated with scleroderma, which is part of the spectrum of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of skin rashes or lesions</t>
+          <t>Long-term use of NSAIDs for non-inflammatory conditions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Skin manifestations are common in Mixed Connective Tissue Disease; their absence suggests a lower likelihood of the diagnosis.</t>
+          <t>NSAIDs are often used for pain management in non-inflammatory conditions, which are not indicative of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Use of immunosuppressive medications</t>
+          <t>Previous diagnosis of polymyositis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with Mixed Connective Tissue Disease often require immunosuppressive therapy, indicating a more severe autoimmune process.</t>
+          <t>Polymyositis is another condition that can overlap in Mixed Connective Tissue Disease, characterized by muscle inflammation and weakness.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No previous episodes of severe fatigue or malaise</t>
+          <t>History of fibromyalgia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chronic fatigue is a common symptom in Mixed Connective Tissue Disease; its absence may indicate that the condition is not present.</t>
+          <t>Fibromyalgia is a condition characterized by widespread musculoskeletal pain and is not an autoimmune disease, thus less likely associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of arthritis or joint pain</t>
+          <t>Use of corticosteroids for autoimmune disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arthritis is a prevalent symptom in Mixed Connective Tissue Disease, supporting the diagnosis.</t>
+          <t>Corticosteroids are commonly used to manage symptoms of autoimmune diseases, including Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of connective tissue diseases</t>
+          <t>No history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of family history may suggest a lower genetic predisposition to Mixed Connective Tissue Disease.</t>
+          <t>The absence of Raynaud's phenomenon, a common early symptom of Mixed Connective Tissue Disease, makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases increases the likelihood of Mixed Connective Tissue Disease due to genetic predisposition.</t>
+          <t>A family history of autoimmune diseases increases the likelihood of developing Mixed Connective Tissue Disease due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,95 +779,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of a family history of autoimmune diseases suggests a lower genetic predisposition to Mixed Connective Tissue Disease.</t>
+          <t>The absence of a family history of autoimmune diseases reduces the likelihood of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to environmental triggers</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations may expose individuals to environmental factors that can trigger autoimmune responses, increasing the risk of Mixed Connective Tissue Disease.</t>
+          <t>Mixed Connective Tissue Disease is more prevalent in females, suggesting a gender-related predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Non-smoker</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Being a non-smoker reduces the risk factors associated with the development of autoimmune diseases, including Mixed Connective Tissue Disease.</t>
+          <t>Mixed Connective Tissue Disease is less common in males, making it a less likely diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Family history of Mixed Connective Tissue Disease</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Smoking has been associated with an increased risk of developing autoimmune diseases, including Mixed Connective Tissue Disease.</t>
+          <t>Direct family history of Mixed Connective Tissue Disease significantly increases the risk due to shared genetic factors.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Low-stress lifestyle</t>
+          <t>No history of smoking</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A low-stress lifestyle is associated with a decreased risk of exacerbating autoimmune conditions, making Mixed Connective Tissue Disease less likely.</t>
+          <t>Since smoking is a risk factor for autoimmune diseases, its absence slightly reduces the likelihood of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in high-stress activities</t>
+          <t>Living in a region with high prevalence of autoimmune diseases</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>High-stress environments can exacerbate autoimmune conditions, making it more likely for individuals to develop Mixed Connective Tissue Disease.</t>
+          <t>Environmental factors in certain regions may contribute to a higher incidence of autoimmune diseases, including Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of other autoimmune conditions</t>
+          <t>Living in a region with low prevalence of autoimmune diseases</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of other autoimmune conditions suggests a lower likelihood of developing Mixed Connective Tissue Disease.</t>
+          <t>Environmental factors in regions with low prevalence of autoimmune diseases may reduce the risk of developing such conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of other autoimmune conditions in the patient</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Having other autoimmune conditions increases the likelihood of Mixed Connective Tissue Disease due to shared pathophysiological mechanisms.</t>
+          <t>Smoking has been associated with an increased risk of autoimmune diseases, including Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engagement in regular physical activity</t>
+          <t>Active lifestyle with regular exercise</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regular physical activity is associated with better immune regulation and lower risk of autoimmune diseases, including Mixed Connective Tissue Disease.</t>
+          <t>An active lifestyle with regular exercise is generally associated with a lower risk of autoimmune diseases.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Swollen hands</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with Mixed Connective Tissue Disease and occurs more frequently in these patients compared to those without the disease.</t>
+          <t>Swollen hands are a common finding in Mixed Connective Tissue Disease due to inflammation and fluid retention, which is more specific to this condition compared to other connective tissue diseases.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Absence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs suggest the absence of systemic involvement or acute exacerbation, which is less likely in patients with Mixed Connective Tissue Disease.</t>
+          <t>The absence of Raynaud's phenomenon, which is highly prevalent in Mixed Connective Tissue Disease, suggests a lower likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Swollen joints</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joint swelling is a prevalent finding in patients with Mixed Connective Tissue Disease, indicating inflammatory arthritis, which is less common in the general population.</t>
+          <t>Raynaud's phenomenon is frequently observed in Mixed Connective Tissue Disease and is a key feature that helps differentiate it from other conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of joint tenderness</t>
+          <t>Normal hand appearance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of joint tenderness indicates a lack of inflammatory arthritis, which is a common feature in Mixed Connective Tissue Disease.</t>
+          <t>A normal appearance of the hands, without swelling or sclerodactyly, reduces the likelihood of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Skin changes (e.g., rash or sclerodactyly)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Skin manifestations such as rashes or sclerodactyly are characteristic of Mixed Connective Tissue Disease and are not typically seen in patients without it.</t>
+          <t>Sclerodactyly, or thickening and tightening of the skin on the fingers, is indicative of connective tissue involvement, which is characteristic of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No skin lesions</t>
+          <t>Lack of arthritis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of skin lesions suggests that the characteristic skin manifestations of Mixed Connective Tissue Disease are not present.</t>
+          <t>The absence of arthritis, especially in the small joints, is less consistent with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Muscle weakness</t>
+          <t>Arthritis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle weakness is a common objective finding in Mixed Connective Tissue Disease, indicating myositis, which is less frequently observed in other conditions.</t>
+          <t>Arthritis, particularly involving small joints, is a common manifestation in Mixed Connective Tissue Disease, reflecting the inflammatory nature of the disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal muscle strength</t>
+          <t>No muscle weakness</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal muscle strength indicates that myositis is unlikely, which is a common finding in patients with Mixed Connective Tissue Disease.</t>
+          <t>The absence of muscle weakness or myositis is a negative indicator for Mixed Connective Tissue Disease, as muscle involvement is common in the condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Myositis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a serious complication associated with Mixed Connective Tissue Disease and is more prevalent in these patients than in those without the disease.</t>
+          <t>Muscle inflammation or myositis is often present in Mixed Connective Tissue Disease, distinguishing it from other connective tissue disorders.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal respiratory exam</t>
+          <t>Normal skin texture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal respiratory exam suggests that pulmonary complications, such as pulmonary hypertension, are not present, which is less common in Mixed Connective Tissue Disease.</t>
+          <t>Normal skin texture, without thickening or tightening, argues against the presence of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
@@ -1071,105 +1071,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The presence of anti-U1 RNP antibodies is highly associated with Mixed Connective Tissue Disease and is a key serological marker.</t>
+          <t>Anti-U1 RNP antibodies are highly specific for Mixed Connective Tissue Disease and are present in nearly all patients with the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Negative anti-dsDNA antibodies</t>
+          <t>Negative anti-U1 RNP antibodies</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of anti-double stranded DNA antibodies is more common in patients without Mixed Connective Tissue Disease, suggesting it is not present.</t>
+          <t>The absence of anti-U1 RNP antibodies makes Mixed Connective Tissue Disease unlikely, as these antibodies are typically present in the condition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elevated levels of anti-Smith antibodies</t>
+          <t>Elevated ANA titer with speckled pattern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti-Smith antibodies are more frequently found in patients with Mixed Connective Tissue Disease compared to other conditions, supporting the diagnosis.</t>
+          <t>A high titer of antinuclear antibodies (ANA) with a speckled pattern is commonly associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal complete blood count (CBC)</t>
+          <t>Normal ESR</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal CBC suggests no significant hematological abnormalities, which are often present in autoimmune diseases like Mixed Connective Tissue Disease.</t>
+          <t>A normal erythrocyte sedimentation rate (ESR) suggests a lack of inflammation, which is uncommon in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of anti-Ro (SS-A) antibodies</t>
+          <t>Positive anti-Smith antibodies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anti-Ro antibodies are commonly found in Mixed Connective Tissue Disease and can indicate the presence of overlapping autoimmune conditions.</t>
+          <t>While more commonly associated with systemic lupus erythematosus, anti-Smith antibodies can also be present in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negative rheumatoid factor (RF)</t>
+          <t>Negative ANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A negative RF test is more common in patients without Mixed Connective Tissue Disease, indicating a lower likelihood of the diagnosis.</t>
+          <t>A negative antinuclear antibody (ANA) test is against the diagnosis, as ANA is usually positive in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes (e.g., CK)</t>
+          <t>Elevated ESR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase (CK) levels can indicate myositis, which is often seen in patients with Mixed Connective Tissue Disease.</t>
+          <t>An elevated erythrocyte sedimentation rate (ESR) is indicative of inflammation, which is common in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal renal function tests</t>
+          <t>Normal complement levels</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal renal function tests suggest that there is no significant renal involvement, which can be a feature of Mixed Connective Tissue Disease.</t>
+          <t>Normal complement levels can argue against Mixed Connective Tissue Disease, as complement consumption is often seen in autoimmune conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary function tests showing restrictive lung disease</t>
+          <t>Positive rheumatoid factor</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Restrictive lung disease is a common pulmonary manifestation in Mixed Connective Tissue Disease, supporting the diagnosis.</t>
+          <t>Rheumatoid factor can be positive in Mixed Connective Tissue Disease, although it is not specific.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative anti-CCP antibodies</t>
+          <t>Negative anti-Smith antibodies</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of anti-citrullinated protein antibodies is more frequently seen in patients without Mixed Connective Tissue Disease, supporting the absence of the condition.</t>
+          <t>While not definitive, the absence of anti-Smith antibodies can be a point against Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
